--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H2">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J2">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>2476.314858902517</v>
+        <v>3998.355177577447</v>
       </c>
       <c r="R2">
-        <v>22286.83373012266</v>
+        <v>35985.19659819703</v>
       </c>
       <c r="S2">
-        <v>0.01214284126043286</v>
+        <v>0.01927888463071305</v>
       </c>
       <c r="T2">
-        <v>0.01214284126043286</v>
+        <v>0.01927888463071306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H3">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J3">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>4079.516199799926</v>
+        <v>3876.970410914186</v>
       </c>
       <c r="R3">
-        <v>36715.64579819934</v>
+        <v>34892.73369822768</v>
       </c>
       <c r="S3">
-        <v>0.02000428881466598</v>
+        <v>0.01869360323161411</v>
       </c>
       <c r="T3">
-        <v>0.02000428881466599</v>
+        <v>0.01869360323161412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H4">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J4">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>3610.679117795635</v>
+        <v>3948.020770991873</v>
       </c>
       <c r="R4">
-        <v>32496.11206016072</v>
+        <v>35532.18693892686</v>
       </c>
       <c r="S4">
-        <v>0.01770530238193677</v>
+        <v>0.01903618702771856</v>
       </c>
       <c r="T4">
-        <v>0.01770530238193677</v>
+        <v>0.01903618702771856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.02674933333333</v>
+        <v>23.78418466666666</v>
       </c>
       <c r="H5">
-        <v>75.080248</v>
+        <v>71.352554</v>
       </c>
       <c r="I5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592957</v>
       </c>
       <c r="J5">
-        <v>0.05787790829091637</v>
+        <v>0.06460357633592959</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1636.651968922596</v>
+        <v>1575.148879254274</v>
       </c>
       <c r="R5">
-        <v>14729.86772030336</v>
+        <v>14176.33991328846</v>
       </c>
       <c r="S5">
-        <v>0.00802547583388075</v>
+        <v>0.007594901445883845</v>
       </c>
       <c r="T5">
-        <v>0.008025475833880752</v>
+        <v>0.007594901445883847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J6">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>13747.42355969981</v>
+        <v>23356.78138165882</v>
       </c>
       <c r="R6">
-        <v>123726.8120372983</v>
+        <v>210211.0324349294</v>
       </c>
       <c r="S6">
-        <v>0.06741177577852635</v>
+        <v>0.1126194831632276</v>
       </c>
       <c r="T6">
-        <v>0.06741177577852636</v>
+        <v>0.1126194831632276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J7">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>22647.70043909602</v>
@@ -883,10 +883,10 @@
         <v>203829.3039518642</v>
       </c>
       <c r="S7">
-        <v>0.1110551149653318</v>
+        <v>0.1092005048387987</v>
       </c>
       <c r="T7">
-        <v>0.1110551149653319</v>
+        <v>0.1092005048387987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J8">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>20044.92077897509</v>
+        <v>23062.74804085214</v>
       </c>
       <c r="R8">
-        <v>180404.2870107758</v>
+        <v>207564.7323676692</v>
       </c>
       <c r="S8">
-        <v>0.09829214173714591</v>
+        <v>0.1112017414661456</v>
       </c>
       <c r="T8">
-        <v>0.09829214173714593</v>
+        <v>0.1112017414661456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="J9">
-        <v>0.3213129853678316</v>
+        <v>0.3773880863345054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>9085.980224084786</v>
+        <v>9201.385665442012</v>
       </c>
       <c r="R9">
-        <v>81773.82201676306</v>
+        <v>82812.47098897809</v>
       </c>
       <c r="S9">
-        <v>0.04455395288682752</v>
+        <v>0.04436635686633354</v>
       </c>
       <c r="T9">
-        <v>0.04455395288682754</v>
+        <v>0.04436635686633354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H10">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J10">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>16835.47198818302</v>
+        <v>25322.23451402281</v>
       </c>
       <c r="R10">
-        <v>151519.2478936472</v>
+        <v>227900.1106262053</v>
       </c>
       <c r="S10">
-        <v>0.08255430974862878</v>
+        <v>0.1220963161365496</v>
       </c>
       <c r="T10">
-        <v>0.08255430974862879</v>
+        <v>0.1220963161365496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H11">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J11">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>27734.99519261827</v>
+        <v>24553.48501795143</v>
       </c>
       <c r="R11">
-        <v>249614.9567335644</v>
+        <v>220981.3651615629</v>
       </c>
       <c r="S11">
-        <v>0.1360011400699227</v>
+        <v>0.1183896337167906</v>
       </c>
       <c r="T11">
-        <v>0.1360011400699227</v>
+        <v>0.1183896337167906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H12">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J12">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>24547.55982561375</v>
+        <v>25003.45851962595</v>
       </c>
       <c r="R12">
-        <v>220928.0384305237</v>
+        <v>225031.1266766335</v>
       </c>
       <c r="S12">
-        <v>0.1203712529615527</v>
+        <v>0.1205592726909142</v>
       </c>
       <c r="T12">
-        <v>0.1203712529615527</v>
+        <v>0.1205592726909142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>170.1468356666666</v>
+        <v>150.629115</v>
       </c>
       <c r="H13">
-        <v>510.440507</v>
+        <v>451.887345</v>
       </c>
       <c r="I13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="J13">
-        <v>0.3934886956169198</v>
+        <v>0.4091449703110563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>11126.94061425314</v>
+        <v>9975.674381970115</v>
       </c>
       <c r="R13">
-        <v>100142.4655282782</v>
+        <v>89781.06943773103</v>
       </c>
       <c r="S13">
-        <v>0.05456199283681559</v>
+        <v>0.0480997477668019</v>
       </c>
       <c r="T13">
-        <v>0.05456199283681559</v>
+        <v>0.0480997477668019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H14">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J14">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>9725.937364202113</v>
+        <v>9213.245582180538</v>
       </c>
       <c r="R14">
-        <v>87533.43627781901</v>
+        <v>82919.21023962484</v>
       </c>
       <c r="S14">
-        <v>0.04769204251141158</v>
+        <v>0.04442354187276172</v>
       </c>
       <c r="T14">
-        <v>0.04769204251141158</v>
+        <v>0.04442354187276173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H15">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J15">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>16022.64707690947</v>
+        <v>8933.543650877402</v>
       </c>
       <c r="R15">
-        <v>144203.8236921853</v>
+        <v>80401.89285789662</v>
       </c>
       <c r="S15">
-        <v>0.07856854685800251</v>
+        <v>0.04307490198833606</v>
       </c>
       <c r="T15">
-        <v>0.07856854685800251</v>
+        <v>0.04307490198833606</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H16">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J16">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>14181.24953523744</v>
+        <v>9097.262076836423</v>
       </c>
       <c r="R16">
-        <v>127631.245817137</v>
+        <v>81875.35869152781</v>
       </c>
       <c r="S16">
-        <v>0.06953908197978242</v>
+        <v>0.04386430375626462</v>
       </c>
       <c r="T16">
-        <v>0.06953908197978242</v>
+        <v>0.04386430375626462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.29468800000001</v>
+        <v>54.80491966666667</v>
       </c>
       <c r="H17">
-        <v>294.884064</v>
+        <v>164.414759</v>
       </c>
       <c r="I17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="J17">
-        <v>0.2273204107243321</v>
+        <v>0.1488633670185088</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>6428.089901214722</v>
+        <v>3629.550854924009</v>
       </c>
       <c r="R17">
-        <v>57852.8091109325</v>
+        <v>32665.95769431608</v>
       </c>
       <c r="S17">
-        <v>0.03152073937513559</v>
+        <v>0.01750061940114638</v>
       </c>
       <c r="T17">
-        <v>0.03152073937513559</v>
+        <v>0.01750061940114638</v>
       </c>
     </row>
   </sheetData>
